--- a/week1/kadai1.xlsx
+++ b/week1/kadai1.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangqiang\Documents\Programming\Php\tus-php-3\week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1C098-F6BB-4CAA-B4F0-9593684DDA6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1126FD2-5D02-42C5-8969-5F2901110E66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="1980" windowWidth="21450" windowHeight="14890" xr2:uid="{634FAF0C-E992-4C1B-9ECE-6B8BB077B84D}"/>
+    <workbookView xWindow="-22670" yWindow="1190" windowWidth="21450" windowHeight="14890" xr2:uid="{634FAF0C-E992-4C1B-9ECE-6B8BB077B84D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="受験者数J=100" sheetId="1" r:id="rId1"/>
+    <sheet name="問題数N=100" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +31,72 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+  <si>
+    <t>問題数N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受験者数J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推定精度</t>
+  </si>
+  <si>
+    <t>平均誤差1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均誤差10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +109,27 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -74,8 +156,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -118,6 +215,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'受験者数J=100'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -142,32 +250,80 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'受験者数J=100'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$7</c:f>
+              <c:f>'受験者数J=100'!$M$2:$M$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4318484119379997E-3</c:v>
+                  <c:v>0.65789000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3990966513188E-2</c:v>
+                  <c:v>0.41952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24197072451914001</c:v>
+                  <c:v>0.33831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39894228040142998</c:v>
+                  <c:v>0.27365999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24197072451914001</c:v>
+                  <c:v>0.26815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3990966513188E-2</c:v>
+                  <c:v>0.22471000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4318484119379997E-3</c:v>
+                  <c:v>0.22449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21871000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18862999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -175,7 +331,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B8C-48A1-BE40-A829165A7043}"/>
+              <c16:uniqueId val="{00000000-EC24-432B-ADE7-B0CBB1814EED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -187,11 +343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565045400"/>
-        <c:axId val="563879200"/>
+        <c:axId val="315459584"/>
+        <c:axId val="315461224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565045400"/>
+        <c:axId val="315459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -231,8 +387,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>問題数</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>θ</a:t>
+                  <a:t>N</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -248,131 +408,6 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563879200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="563879200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>f(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>θ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -429,7 +464,1466 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565045400"/>
+        <c:crossAx val="315461224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="315461224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>平均誤差</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315459584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'受験者数J=100'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推定精度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'受験者数J=100'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'受験者数J=100'!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5200109440787972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3836765827612507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9558688776565871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6541694072937227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7292560134253216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4501802322994077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4545414049623595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.572264642677518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3013836611355565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3954893708859393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1869-4334-AA78-5DB70680C3E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353592816"/>
+        <c:axId val="353587240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="353592816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>問題数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353587240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353587240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>推定精度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353592816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'問題数N=100'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'問題数N=100'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'問題数N=100'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19814000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17428333333333398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18503749999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17278888888888799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18110000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F41-4C51-A82E-63888595C9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353595440"/>
+        <c:axId val="353599704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="353595440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>受験者数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>J</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353599704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353599704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>平均誤差</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353595440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'問題数N=100'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推定精度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'問題数N=100'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'問題数N=100'!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4054054054054053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4274084124830395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1493305870236874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6593095642331628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0469365095387095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7377833030505663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5035773252614186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4043099371748973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7874091698283365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5218111540585308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80A9-4B49-BA59-44D4CA9CFB44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="533464280"/>
+        <c:axId val="533461000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="533464280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>受験者数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>J</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533461000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="533461000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>推定精度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533464280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -525,6 +2019,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1041,27 +2655,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E5B030-5087-4BB8-B15F-38363185CBFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3682D029-6C39-4CD8-854D-4D57CB0AE45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,6 +4236,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64878AF5-F2AB-495E-B381-DA79D45B7D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12F71C2-E40F-4175-AD99-CA435F6F18F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC08BCA-F3EA-4346-890E-9355FD16E239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1379,47 +4654,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49922C7C-91E4-47A2-A8D8-4074AED2DEFC}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.6774</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="M2" s="5">
+        <f>SUM(C2:L2)/10</f>
+        <v>0.65789000000000009</v>
+      </c>
+      <c r="N2" s="5">
+        <f>1/M2</f>
+        <v>1.5200109440787972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4733</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.40739999999999998</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.4904</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="M3" s="5">
+        <f>SUM(C3:L3)/10</f>
+        <v>0.41952</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:P11" si="0">1/M3</f>
+        <v>2.3836765827612507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.2412</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4052</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M3:M11" si="1">SUM(C4:L4)/10</f>
+        <v>0.33831</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9558688776565871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.2767</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.25769999999999998</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.27365999999999996</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6541694072937227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.2346</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2918</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.28560000000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.3019</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26815</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7292560134253216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22471000000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.4501802322994077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2278</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.2412</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2336</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.2482</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.2334</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.1646</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.2203</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.2056</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22449</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.4545414049623595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.2112</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21871000000000002</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>4.572264642677518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.2054</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.1885</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18862999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3013836611355565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.2064</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.1804</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18534</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3954893708859393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200FD159-689E-48B4-A34C-3296FFDFEC2F}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4.4318484119379997E-3</v>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5.3990966513188E-2</v>
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.157</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.217</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <f>SUM(C2:L2)/10</f>
+        <v>0.185</v>
+      </c>
+      <c r="N2" s="5">
+        <f>1/M2</f>
+        <v>5.4054054054054053</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.24197072451914001</v>
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.184</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.223</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.222</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M11" si="0">SUM(C3:L3)/10</f>
+        <v>0.18425</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N11" si="1">1/M3</f>
+        <v>5.4274084124830395</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.39894228040142998</v>
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.22366666666667001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.22533333333333</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.18866666666667001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.19133333333333</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.214</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.161</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19419999999999998</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>5.1493305870236874</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.24197072451914001</v>
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.16125</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.1895</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.17224999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.2145</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.18024999999999999</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17670000000000002</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>5.6593095642331628</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5.3990966513188E-2</v>
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1938</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.2298</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.2064</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.1948</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19814000000000001</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0469365095387095</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4.4318484119379997E-3</v>
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.16533333333333</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.22533333333333</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.16416666666667001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.20566666666666999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.16716666666666999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.15566666666667001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.14483333333333001</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.16566666666666999</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17428333333333398</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7377833030505663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.18814285714286</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.19142857142857</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.18685714285714</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.20357142857143001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.15785714285714</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.20814285714285999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.17642857142856999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.17014285714286001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.16928571428570999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.16514285714286001</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18170000000000003</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5035773252614186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.19612499999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.170875</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.18587500000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.184</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.1845</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.171375</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.201625</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18503749999999999</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4043099371748973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.18411111111111</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.17144444444443999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.17777777777778001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.15644444444444</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.18222222222222001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.18977777777777999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.19633333333333</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.17277777777778</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17278888888888799</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7874091698283365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.1777</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.1782</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.1792</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5218111540585308</v>
       </c>
     </row>
   </sheetData>
